--- a/src/assets/templates/minidyn/PV Minidyn Demo FR.xlsx
+++ b/src/assets/templates/minidyn/PV Minidyn Demo FR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spellevrault\Documents\Git\rapportxls\Template Mapview 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b21a0883c8b69009/Documents/Git/rapportxls/Template Mapview 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B6B9F-5898-4650-9DC4-DAD54571B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{72699253-D0BA-4841-9294-1DF624206B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FB99A5-9842-4340-952B-AA3FFF0DAD90}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2990" windowWidth="28800" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3310" yWindow="1270" windowWidth="19700" windowHeight="18960" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1923,18 +1923,440 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1944,442 +2366,8 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2397,69 +2385,6 @@
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="53">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2780,6 +2705,69 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5531,8 +5519,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>58118</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>204287</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6124,7 +6112,7 @@
     <tableColumn id="5" xr3:uid="{78D53A4F-2B9E-4E5C-B071-2D7E5AE1C4A5}" name="UMax (um)" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{846AD2D6-2F2E-48A1-87DA-9225C89805DF}" name="ModuleRaw" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{CAA6DD59-7391-4D90-A715-A84658590B9E}" name="Module équivalent" dataDxfId="22">
-      <calculatedColumnFormula array="1">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6152,13 +6140,13 @@
     <tableColumn id="4" xr3:uid="{0A2B92A3-52FE-4B7B-A901-A051556B2BB5}" name="Module Lacher 1" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(IF(ArrayResult3[[#This Row],[Module1Raw]]="","",IF(ArrayResult3[[#This Row],[Module1Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module1Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module1Raw]]))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7FF5F217-878A-49B7-89EF-6D4D88839A9B}" name="Module2Raw" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{84742B68-63A5-4C9E-8D8C-B090DBEDE745}" name="Module Lacher 2" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{7FF5F217-878A-49B7-89EF-6D4D88839A9B}" name="Module2Raw" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{84742B68-63A5-4C9E-8D8C-B090DBEDE745}" name="Module Lacher 2" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(IF(ArrayResult3[[#This Row],[Module2Raw]]="","",IF(ArrayResult3[[#This Row],[Module2Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module2Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module2Raw]]))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0170F1DF-F85C-4C4A-9417-0AECA6D486CC}" name="Module3Raw" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9CE34F7F-7A3C-4184-9E88-6908340A2335}" name="Module Lacher 3" dataDxfId="11">
-      <calculatedColumnFormula array="1">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{0170F1DF-F85C-4C4A-9417-0AECA6D486CC}" name="Module3Raw" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9CE34F7F-7A3C-4184-9E88-6908340A2335}" name="Module Lacher 3" dataDxfId="9">
+      <calculatedColumnFormula>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -6166,15 +6154,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{510255DD-2C4B-4168-9FB1-315F327D1162}" name="ArrayResult5" displayName="ArrayResult5" ref="B17:F48" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{510255DD-2C4B-4168-9FB1-315F327D1162}" name="ArrayResult5" displayName="ArrayResult5" ref="B17:F48" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="B17:F48" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3780717C-546F-4E58-A0A6-10D34977F307}" name="N° essai" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{94537BE9-4625-44FF-93E0-EAD8311D6883}" name="Longitude" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3859A870-D015-4F19-876C-4AEB9A4864F8}" name="Latitude" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E91A0180-2DAC-4DBE-9978-55F98A61BA08}" name="ModuleRaw" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D9D5B7D1-CD2A-4652-B8C9-0AA959C0EE02}" name="Module Edyn 2 (MPa)" dataDxfId="2">
-      <calculatedColumnFormula array="1">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3780717C-546F-4E58-A0A6-10D34977F307}" name="N° essai" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{94537BE9-4625-44FF-93E0-EAD8311D6883}" name="Longitude" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3859A870-D015-4F19-876C-4AEB9A4864F8}" name="Latitude" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E91A0180-2DAC-4DBE-9978-55F98A61BA08}" name="ModuleRaw" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D9D5B7D1-CD2A-4652-B8C9-0AA959C0EE02}" name="Module Edyn 2 (MPa)" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6493,8 +6481,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6533,20 +6521,20 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6556,15 +6544,15 @@
       <c r="D3" s="2"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -6589,9 +6577,9 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -6608,11 +6596,11 @@
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6628,12 +6616,12 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="214"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
+      <c r="A7" s="241"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -6647,20 +6635,20 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="215"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -6668,189 +6656,189 @@
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="234" t="s">
+      <c r="C9" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="204"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="222"/>
+      <c r="M13" s="222"/>
+      <c r="N13" s="222"/>
+      <c r="O13" s="222"/>
+      <c r="P13" s="223"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="102"/>
       <c r="C14" s="103"/>
       <c r="D14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="205" t="e">
+      <c r="E14" s="229" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
+      <c r="H14" s="229"/>
       <c r="I14" s="103"/>
       <c r="J14" s="103"/>
       <c r="K14" s="103"/>
       <c r="L14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="206">
+      <c r="M14" s="215">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
-      </c>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="207"/>
+        <v>45213</v>
+      </c>
+      <c r="N14" s="215"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="236"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="217" t="e">
+      <c r="E15" s="218" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
       <c r="K15" s="73"/>
       <c r="L15" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="218" t="e">
+      <c r="M15" s="230" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="219"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="231"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="105"/>
       <c r="C16" s="106"/>
       <c r="D16" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="220" t="e">
+      <c r="E16" s="225" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
       <c r="I16" s="107"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
       <c r="L16" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="221" t="e">
+      <c r="M16" s="227" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="221"/>
-      <c r="O16" s="221"/>
-      <c r="P16" s="222"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6874,62 +6862,62 @@
     </row>
     <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="204"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="222"/>
+      <c r="M18" s="222"/>
+      <c r="N18" s="222"/>
+      <c r="O18" s="222"/>
+      <c r="P18" s="223"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="119"/>
       <c r="C19" s="103"/>
       <c r="D19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="205" t="e">
+      <c r="E19" s="229" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
       <c r="I19" s="103"/>
       <c r="J19" s="103"/>
       <c r="K19" s="103"/>
       <c r="L19" s="69"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="223"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="229"/>
+      <c r="O19" s="229"/>
+      <c r="P19" s="232"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="120"/>
       <c r="C20" s="101"/>
       <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="217" t="e">
+      <c r="E20" s="218" t="e">
         <f>IF(Report_Lane="","",Report_Lane)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
       <c r="H20" s="104"/>
       <c r="I20" s="104"/>
       <c r="J20" s="104"/>
@@ -6937,37 +6925,37 @@
       <c r="L20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="224" t="e" cm="1">
+      <c r="M20" s="233" t="e" cm="1">
         <f t="array" ref="M20">IF(Report_Part="","",Report_Part)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N20" s="225"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="226"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="234"/>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="121"/>
       <c r="C21" s="106"/>
       <c r="D21" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="220" t="e">
+      <c r="E21" s="225" t="e">
         <f>IF(Report_Direction="","",Report_Direction)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
       <c r="I21" s="107"/>
       <c r="J21" s="107"/>
       <c r="K21" s="107"/>
       <c r="L21" s="70"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="221"/>
-      <c r="P21" s="222"/>
+      <c r="M21" s="227"/>
+      <c r="N21" s="227"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="228"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6991,110 +6979,110 @@
     </row>
     <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="203"/>
-      <c r="P23" s="204"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="222"/>
+      <c r="M23" s="222"/>
+      <c r="N23" s="222"/>
+      <c r="O23" s="222"/>
+      <c r="P23" s="223"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
       <c r="D24" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="205" t="e">
+      <c r="E24" s="229" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="229"/>
       <c r="I24" s="103"/>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
       <c r="L24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="235" t="e">
+      <c r="M24" s="203" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N24" s="235"/>
-      <c r="O24" s="235"/>
-      <c r="P24" s="236"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="203"/>
+      <c r="P24" s="204"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="100"/>
       <c r="C25" s="101"/>
       <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="225" t="e">
+      <c r="E25" s="224" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
       <c r="K25" s="104"/>
       <c r="L25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="217" t="e">
+      <c r="M25" s="218" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N25" s="217"/>
-      <c r="O25" s="217"/>
-      <c r="P25" s="228"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="220"/>
       <c r="Q25" s="39"/>
     </row>
-    <row r="26" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
       <c r="D26" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="220" t="e">
+      <c r="E26" s="225" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
       <c r="I26" s="107"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
       <c r="L26" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="221" t="e">
+      <c r="M26" s="227" t="e">
         <f>IF(Report_Temperature="","",Report_Temperature)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="222"/>
+      <c r="N26" s="227"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="228"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7116,78 +7104,78 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
-      <c r="B28" s="202" t="s">
+      <c r="B28" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="203"/>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="204"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="222"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
+      <c r="O28" s="222"/>
+      <c r="P28" s="223"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="97"/>
       <c r="C29" s="98"/>
       <c r="D29" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="206" t="e">
+      <c r="E29" s="215" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
       <c r="K29" s="99"/>
       <c r="L29" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="246" t="e">
+      <c r="M29" s="216" t="e">
         <f>IF(Hardware_CertificateStart="","",Hardware_CertificateStart)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N29" s="246"/>
-      <c r="O29" s="246"/>
-      <c r="P29" s="247"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="217"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="100"/>
       <c r="C30" s="101"/>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="217" t="e" cm="1">
+      <c r="E30" s="218" t="e" cm="1">
         <f t="array" ref="E30">Unit_Modulus_Min &amp;" à " &amp; Unit_Modulus_Max &amp; " MPa"</f>
         <v>#NAME?</v>
       </c>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="217"/>
-      <c r="N30" s="217"/>
-      <c r="O30" s="217"/>
-      <c r="P30" s="228"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="220"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7211,26 +7199,26 @@
     </row>
     <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="203"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="204"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="223"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
@@ -7251,7 +7239,7 @@
         <v>49</v>
       </c>
       <c r="M33" s="109" t="e">
-        <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
+        <f>IF(OR(Thresholds_Modulus_Value="",Thresholds_Modulus_Value=0),"N.C.",Thresholds_Modulus_Value)</f>
         <v>#NAME?</v>
       </c>
       <c r="N33" s="110"/>
@@ -7259,7 +7247,7 @@
       <c r="P33" s="111"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" s="47" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="47" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="112"/>
       <c r="C34" s="104"/>
@@ -7288,7 +7276,7 @@
       <c r="P34" s="114"/>
       <c r="Q34" s="45"/>
     </row>
-    <row r="35" spans="1:17" s="47" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="47" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="100"/>
       <c r="C35" s="101"/>
@@ -7312,7 +7300,7 @@
       <c r="P35" s="114"/>
       <c r="Q35" s="45"/>
     </row>
-    <row r="36" spans="1:17" s="47" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="47" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="105"/>
       <c r="C36" s="106"/>
@@ -7478,59 +7466,59 @@
       <c r="D44" s="64"/>
       <c r="E44" s="63"/>
       <c r="F44" s="63"/>
-      <c r="G44" s="237" t="s">
+      <c r="G44" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="237"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="237"/>
-      <c r="K44" s="237"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="238" t="s">
+      <c r="M44" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="238"/>
-      <c r="O44" s="238"/>
-      <c r="P44" s="239"/>
+      <c r="N44" s="206"/>
+      <c r="O44" s="206"/>
+      <c r="P44" s="207"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="240" t="e">
+      <c r="B45" s="208" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C45" s="241"/>
-      <c r="D45" s="241"/>
-      <c r="E45" s="241"/>
-      <c r="F45" s="241"/>
-      <c r="G45" s="213" t="e">
+      <c r="C45" s="209"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="212" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="245"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
+      <c r="O45" s="213"/>
+      <c r="P45" s="214"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7540,11 +7528,11 @@
     </row>
     <row r="47" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="242"/>
-      <c r="C47" s="243"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="243"/>
-      <c r="F47" s="243"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
       <c r="G47" s="66"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -7581,22 +7569,22 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="230" t="s">
+      <c r="E49" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="230"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="230"/>
-      <c r="J49" s="230"/>
-      <c r="K49" s="230"/>
-      <c r="L49" s="230"/>
-      <c r="M49" s="230"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="197"/>
+      <c r="L49" s="197"/>
+      <c r="M49" s="197"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="231" t="s">
+      <c r="O49" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="231"/>
+      <c r="P49" s="198"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7604,24 +7592,56 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="233" t="s">
+      <c r="E50" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="200"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="232"/>
-      <c r="P50" s="232"/>
+      <c r="O50" s="199"/>
+      <c r="P50" s="199"/>
       <c r="Q50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="E50:M50"/>
@@ -7638,45 +7658,13 @@
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{22BC0ECF-B0DB-407E-A9DE-C799A88CBDD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7687,43 +7675,43 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:I51"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.453125" style="152" customWidth="1"/>
-    <col min="2" max="9" width="11.90625" style="152" customWidth="1"/>
-    <col min="10" max="10" width="2.08984375" style="152" customWidth="1"/>
-    <col min="12" max="13" width="10.90625" style="164"/>
+    <col min="2" max="9" width="11.81640625" style="152" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="152" customWidth="1"/>
+    <col min="12" max="13" width="10.81640625" style="164"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145"/>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
-      <c r="D1" s="249" t="s">
+      <c r="D1" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
       <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="145"/>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="256" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
       <c r="J2" s="145"/>
       <c r="L2" s="164" t="e" cm="1">
         <f t="array" ref="L2">Thresholds_Modulus_Value</f>
@@ -7743,11 +7731,11 @@
       <c r="G3" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="251">
+      <c r="H3" s="257">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
-      </c>
-      <c r="I3" s="252"/>
+        <v>45213</v>
+      </c>
+      <c r="I3" s="258"/>
       <c r="J3" s="145"/>
       <c r="L3" s="164" t="e" cm="1">
         <f t="array" ref="L3">Thresholds_Modulus_Value</f>
@@ -7768,11 +7756,11 @@
       <c r="G4" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="253" t="e">
+      <c r="H4" s="245" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I4" s="253"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -7795,16 +7783,16 @@
     </row>
     <row r="6" spans="1:13" s="147" customFormat="1" ht="23" x14ac:dyDescent="0.5">
       <c r="A6" s="146"/>
-      <c r="B6" s="254" t="s">
+      <c r="B6" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
       <c r="J6" s="146"/>
       <c r="L6" s="165" t="s">
         <v>46</v>
@@ -7815,16 +7803,16 @@
     </row>
     <row r="7" spans="1:13" s="147" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A7" s="146"/>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="248"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
       <c r="J7" s="146"/>
       <c r="L7" s="165"/>
       <c r="M7" s="165"/>
@@ -7857,129 +7845,129 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="145"/>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256" t="e">
+      <c r="C10" s="252"/>
+      <c r="D10" s="246" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="256"/>
-      <c r="F10" s="255" t="s">
+      <c r="E10" s="246"/>
+      <c r="F10" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="255"/>
-      <c r="H10" s="256" t="e">
+      <c r="G10" s="252"/>
+      <c r="H10" s="246" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="256"/>
+      <c r="I10" s="246"/>
       <c r="J10" s="145"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="145"/>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="256" t="e">
+      <c r="C11" s="252"/>
+      <c r="D11" s="246" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="255" t="s">
+      <c r="E11" s="246"/>
+      <c r="F11" s="252" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="255"/>
-      <c r="H11" s="256" t="e">
+      <c r="G11" s="252"/>
+      <c r="H11" s="246" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="256"/>
+      <c r="I11" s="246"/>
       <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="145"/>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256" t="e">
+      <c r="C12" s="252"/>
+      <c r="D12" s="246" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="255" t="s">
+      <c r="E12" s="246"/>
+      <c r="F12" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="255"/>
-      <c r="H12" s="256" t="e">
+      <c r="G12" s="252"/>
+      <c r="H12" s="246" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="256"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="145"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="145"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256" t="e">
+      <c r="C13" s="252"/>
+      <c r="D13" s="246" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="256"/>
-      <c r="F13" s="255" t="s">
+      <c r="E13" s="246"/>
+      <c r="F13" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="255"/>
-      <c r="H13" s="256" t="e">
+      <c r="G13" s="252"/>
+      <c r="H13" s="246" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="256"/>
+      <c r="I13" s="246"/>
       <c r="J13" s="145"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="145"/>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="256" t="e">
+      <c r="C14" s="252"/>
+      <c r="D14" s="246" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="255" t="s">
+      <c r="E14" s="246"/>
+      <c r="F14" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="255"/>
-      <c r="H14" s="257" t="e">
+      <c r="G14" s="252"/>
+      <c r="H14" s="253" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="257"/>
+      <c r="I14" s="253"/>
       <c r="J14" s="145"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="145"/>
-      <c r="B15" s="255"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="255" t="s">
+      <c r="B15" s="252"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="255"/>
-      <c r="H15" s="256" t="e">
+      <c r="G15" s="252"/>
+      <c r="H15" s="246" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="256"/>
+      <c r="I15" s="246"/>
       <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -8264,85 +8252,85 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="145"/>
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="245" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="253"/>
-      <c r="D39" s="256" t="e">
+      <c r="C39" s="245"/>
+      <c r="D39" s="246" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="253" t="s">
+      <c r="E39" s="246"/>
+      <c r="F39" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="253"/>
-      <c r="H39" s="258" t="e">
+      <c r="G39" s="245"/>
+      <c r="H39" s="251" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",ROUND(AVERAGE(Pi_Modulus),0)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I39" s="258"/>
+      <c r="I39" s="251"/>
       <c r="J39" s="145"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="145"/>
-      <c r="B40" s="253" t="s">
+      <c r="B40" s="245" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="253"/>
-      <c r="D40" s="256" t="e">
+      <c r="C40" s="245"/>
+      <c r="D40" s="246" t="e">
         <f>IF(Thresholds_Modulus_Name="","",Thresholds_Modulus_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E40" s="256"/>
-      <c r="F40" s="253" t="s">
+      <c r="E40" s="246"/>
+      <c r="F40" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="253"/>
-      <c r="H40" s="256" t="e">
+      <c r="G40" s="245"/>
+      <c r="H40" s="246" t="e">
         <f>MAX(Pi_Number)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I40" s="256"/>
+      <c r="I40" s="246"/>
       <c r="J40" s="145"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="145"/>
-      <c r="B41" s="253" t="s">
+      <c r="B41" s="245" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="253"/>
-      <c r="D41" s="256" t="e">
+      <c r="C41" s="245"/>
+      <c r="D41" s="246" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="253" t="s">
+      <c r="E41" s="246"/>
+      <c r="F41" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="253"/>
-      <c r="H41" s="256" t="e" cm="1">
+      <c r="G41" s="245"/>
+      <c r="H41" s="246" t="e" cm="1">
         <f t="array" ref="H41">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I41" s="256"/>
+      <c r="I41" s="246"/>
       <c r="J41" s="145"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="145"/>
-      <c r="B42" s="253"/>
-      <c r="C42" s="253"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="253" t="s">
+      <c r="B42" s="245"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="253"/>
-      <c r="H42" s="260" t="e">
+      <c r="G42" s="245"/>
+      <c r="H42" s="247" t="e">
         <f>H41/H40</f>
         <v>#NAME?</v>
       </c>
-      <c r="I42" s="260"/>
+      <c r="I42" s="247"/>
       <c r="J42" s="145"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -8387,48 +8375,48 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="145"/>
-      <c r="B46" s="261" t="e">
+      <c r="B46" s="248" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="248"/>
       <c r="E46" s="145"/>
-      <c r="F46" s="262" t="s">
+      <c r="F46" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="262"/>
-      <c r="H46" s="262" t="s">
+      <c r="G46" s="249"/>
+      <c r="H46" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="262"/>
+      <c r="I46" s="249"/>
       <c r="J46" s="145"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="145"/>
-      <c r="B47" s="261"/>
-      <c r="C47" s="261"/>
-      <c r="D47" s="261"/>
+      <c r="B47" s="248"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="248"/>
       <c r="E47" s="145"/>
-      <c r="F47" s="263" t="e">
+      <c r="F47" s="250" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G47" s="263"/>
-      <c r="H47" s="262"/>
-      <c r="I47" s="262"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="249"/>
+      <c r="I47" s="249"/>
       <c r="J47" s="145"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="145"/>
-      <c r="B48" s="261"/>
-      <c r="C48" s="261"/>
-      <c r="D48" s="261"/>
+      <c r="B48" s="248"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="248"/>
       <c r="E48" s="145"/>
-      <c r="F48" s="263"/>
-      <c r="G48" s="263"/>
-      <c r="H48" s="262"/>
-      <c r="I48" s="262"/>
+      <c r="F48" s="250"/>
+      <c r="G48" s="250"/>
+      <c r="H48" s="249"/>
+      <c r="I48" s="249"/>
       <c r="J48" s="145"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8465,10 +8453,10 @@
       <c r="E51" s="145"/>
       <c r="F51" s="145"/>
       <c r="G51" s="145"/>
-      <c r="H51" s="259" t="s">
+      <c r="H51" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="259"/>
+      <c r="I51" s="244"/>
       <c r="J51" s="145"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -8499,6 +8487,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -8513,44 +8539,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="F47:G48"/>
     <mergeCell ref="H47:I48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8567,7 +8555,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8598,12 +8586,12 @@
       <c r="A2" s="2"/>
       <c r="B2" s="153"/>
       <c r="C2" s="154"/>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
       <c r="H2" s="154"/>
       <c r="I2" s="155"/>
       <c r="J2" s="2"/>
@@ -8612,12 +8600,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="156"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="328" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="2"/>
       <c r="I3" s="157"/>
       <c r="J3" s="2"/>
@@ -8626,12 +8614,12 @@
       <c r="A4" s="2"/>
       <c r="B4" s="156"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="268" t="s">
+      <c r="D4" s="328" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
       <c r="H4" s="2"/>
       <c r="I4" s="157"/>
       <c r="J4" s="2"/>
@@ -8640,12 +8628,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="156"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="268" t="s">
+      <c r="D5" s="328" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
       <c r="H5" s="2"/>
       <c r="I5" s="157"/>
       <c r="J5" s="2"/>
@@ -8664,42 +8652,42 @@
     </row>
     <row r="7" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="329" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="331"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="266"/>
+      <c r="B8" s="324"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="326"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="288" t="s">
+      <c r="B9" s="309" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="290"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="311"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8718,11 +8706,11 @@
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="291" t="s">
+      <c r="C11" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8733,9 +8721,9 @@
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="153"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="260"/>
       <c r="F12" s="159"/>
       <c r="G12" s="160"/>
       <c r="H12" s="154"/>
@@ -8745,74 +8733,74 @@
     </row>
     <row r="13" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="293"/>
-      <c r="D13" s="294" t="e">
+      <c r="C13" s="313"/>
+      <c r="D13" s="314" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="295"/>
-      <c r="F13" s="296" t="s">
+      <c r="E13" s="315"/>
+      <c r="F13" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="297"/>
-      <c r="H13" s="298" t="e">
+      <c r="G13" s="285"/>
+      <c r="H13" s="282" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="299"/>
+      <c r="I13" s="308"/>
       <c r="J13" s="2"/>
       <c r="M13" s="158"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="316" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="273"/>
-      <c r="D14" s="274" t="e">
+      <c r="C14" s="317"/>
+      <c r="D14" s="318" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="275"/>
-      <c r="F14" s="276" t="s">
+      <c r="E14" s="319"/>
+      <c r="F14" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="277"/>
-      <c r="H14" s="278" t="e">
+      <c r="G14" s="293"/>
+      <c r="H14" s="290" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="279"/>
+      <c r="I14" s="307"/>
       <c r="J14" s="2"/>
       <c r="M14" s="158"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="280" t="s">
+      <c r="B15" s="320" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="281"/>
-      <c r="D15" s="282" t="e">
+      <c r="C15" s="321"/>
+      <c r="D15" s="322" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284" t="s">
+      <c r="E15" s="323"/>
+      <c r="F15" s="300" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="285"/>
-      <c r="H15" s="286" t="e">
+      <c r="G15" s="301"/>
+      <c r="H15" s="304" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="287"/>
+      <c r="I15" s="306"/>
       <c r="J15" s="2"/>
       <c r="M15" s="158"/>
     </row>
-    <row r="16" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8830,11 +8818,11 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="291" t="s">
+      <c r="C17" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="260"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -8847,9 +8835,9 @@
     <row r="18" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="153"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
       <c r="F18" s="159"/>
       <c r="G18" s="160"/>
       <c r="H18" s="154"/>
@@ -8861,66 +8849,66 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="307"/>
-      <c r="D19" s="298" t="e">
+      <c r="C19" s="281"/>
+      <c r="D19" s="282" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="308"/>
-      <c r="F19" s="296" t="s">
+      <c r="E19" s="283"/>
+      <c r="F19" s="284" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="297"/>
-      <c r="H19" s="298" t="e">
+      <c r="G19" s="285"/>
+      <c r="H19" s="282" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="299"/>
+      <c r="I19" s="308"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="303" t="s">
+      <c r="B20" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="278" t="e">
+      <c r="C20" s="289"/>
+      <c r="D20" s="290" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E20" s="305"/>
-      <c r="F20" s="276" t="s">
+      <c r="E20" s="291"/>
+      <c r="F20" s="292" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="277"/>
-      <c r="H20" s="278" t="e">
+      <c r="G20" s="293"/>
+      <c r="H20" s="290" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="279"/>
+      <c r="I20" s="307"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="300" t="s">
+      <c r="B21" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="301"/>
-      <c r="D21" s="286" t="e">
+      <c r="C21" s="297"/>
+      <c r="D21" s="304" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="302"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="287"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="306"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8935,11 +8923,11 @@
     <row r="23" spans="1:16" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="291" t="s">
+      <c r="C23" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -8949,9 +8937,9 @@
     <row r="24" spans="1:16" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="153"/>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+      <c r="E24" s="260"/>
       <c r="F24" s="159"/>
       <c r="G24" s="160"/>
       <c r="H24" s="154"/>
@@ -8960,24 +8948,24 @@
     </row>
     <row r="25" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="307"/>
-      <c r="D25" s="298" t="e">
+      <c r="C25" s="281"/>
+      <c r="D25" s="282" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="308"/>
-      <c r="F25" s="296" t="s">
+      <c r="E25" s="283"/>
+      <c r="F25" s="284" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="297"/>
-      <c r="H25" s="315" t="e">
+      <c r="G25" s="285"/>
+      <c r="H25" s="286" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I25" s="316" t="e">
+      <c r="I25" s="287" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -8985,24 +8973,24 @@
     </row>
     <row r="26" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="303" t="s">
+      <c r="B26" s="288" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="278" t="e">
+      <c r="C26" s="289"/>
+      <c r="D26" s="290" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="305"/>
-      <c r="F26" s="276" t="s">
+      <c r="E26" s="291"/>
+      <c r="F26" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="277"/>
-      <c r="H26" s="309" t="e">
+      <c r="G26" s="293"/>
+      <c r="H26" s="294" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I26" s="310" t="e">
+      <c r="I26" s="295" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -9010,25 +8998,25 @@
     </row>
     <row r="27" spans="1:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
-      <c r="F27" s="284" t="s">
+      <c r="B27" s="296"/>
+      <c r="C27" s="297"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="299"/>
+      <c r="F27" s="300" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="285"/>
-      <c r="H27" s="313" t="e">
+      <c r="G27" s="301"/>
+      <c r="H27" s="302" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I27" s="314" t="e">
+      <c r="I27" s="303" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9043,11 +9031,11 @@
     <row r="29" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="291" t="s">
+      <c r="C29" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="291"/>
-      <c r="E29" s="291"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -9057,9 +9045,9 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="153"/>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="291"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="260"/>
+      <c r="E30" s="260"/>
       <c r="F30" s="154"/>
       <c r="G30" s="154"/>
       <c r="H30" s="154"/>
@@ -9068,53 +9056,53 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="331" t="s">
+      <c r="B31" s="275" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="333" t="s">
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="277" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="333"/>
-      <c r="H31" s="334" t="s">
+      <c r="G31" s="277"/>
+      <c r="H31" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="335"/>
+      <c r="I31" s="279"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="317" t="e">
+      <c r="B32" s="261" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C32" s="318"/>
-      <c r="D32" s="318"/>
-      <c r="E32" s="319"/>
-      <c r="F32" s="323" t="e">
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="267" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G32" s="324"/>
-      <c r="H32" s="325" t="e">
+      <c r="G32" s="268"/>
+      <c r="H32" s="269" t="e">
         <f>IF(Project_Comment="","",Project_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I32" s="326"/>
+      <c r="I32" s="270"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="320"/>
-      <c r="C33" s="321"/>
-      <c r="D33" s="321"/>
-      <c r="E33" s="322"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="328"/>
-      <c r="H33" s="329"/>
-      <c r="I33" s="330"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="274"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9169,28 +9157,26 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -9204,26 +9190,28 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9236,7 +9224,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9268,15 +9256,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="336" t="s">
+      <c r="D2" s="341" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9309,44 +9297,44 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="337"/>
       <c r="B6" s="337"/>
       <c r="C6" s="337"/>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="337"/>
       <c r="B7" s="337"/>
       <c r="C7" s="337"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="337"/>
@@ -9376,17 +9364,17 @@
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="340"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="334"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9395,11 +9383,11 @@
       <c r="C11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="343" t="e">
+      <c r="D11" s="338" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="343"/>
+      <c r="E11" s="338"/>
       <c r="F11" s="166"/>
       <c r="G11" s="166"/>
       <c r="H11" s="166"/>
@@ -9408,7 +9396,7 @@
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
+        <v>45213</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -9418,11 +9406,11 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="344" t="e">
+      <c r="D12" s="339" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="344"/>
+      <c r="E12" s="339"/>
       <c r="F12" s="167"/>
       <c r="G12" s="167"/>
       <c r="H12" s="167"/>
@@ -9441,11 +9429,11 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="345" t="e">
+      <c r="D13" s="340" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="345"/>
+      <c r="E13" s="340"/>
       <c r="F13" s="169"/>
       <c r="G13" s="169"/>
       <c r="H13" s="169"/>
@@ -9473,17 +9461,17 @@
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="332" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="340"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="333"/>
+      <c r="G15" s="333"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="334"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9522,10 +9510,10 @@
       <c r="H17" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="341" t="s">
+      <c r="I17" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="342"/>
+      <c r="J17" s="336"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -9548,8 +9536,8 @@
       <c r="G18" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="178" t="str" cm="1">
-        <f t="array" ref="H18">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H18" s="178" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I18" s="178"/>
@@ -9564,8 +9552,8 @@
       <c r="E19" s="182"/>
       <c r="F19" s="183"/>
       <c r="G19" s="183"/>
-      <c r="H19" s="183" t="str" cm="1">
-        <f t="array" ref="H19">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H19" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I19" s="184"/>
@@ -9580,8 +9568,8 @@
       <c r="E20" s="182"/>
       <c r="F20" s="183"/>
       <c r="G20" s="183"/>
-      <c r="H20" s="183" t="str" cm="1">
-        <f t="array" ref="H20">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H20" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I20" s="184"/>
@@ -9596,8 +9584,8 @@
       <c r="E21" s="182"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
-      <c r="H21" s="183" t="str" cm="1">
-        <f t="array" ref="H21">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H21" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I21" s="184"/>
@@ -9612,8 +9600,8 @@
       <c r="E22" s="182"/>
       <c r="F22" s="183"/>
       <c r="G22" s="183"/>
-      <c r="H22" s="183" t="str" cm="1">
-        <f t="array" ref="H22">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H22" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I22" s="184"/>
@@ -9628,8 +9616,8 @@
       <c r="E23" s="182"/>
       <c r="F23" s="183"/>
       <c r="G23" s="183"/>
-      <c r="H23" s="183" t="str" cm="1">
-        <f t="array" ref="H23">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H23" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I23" s="184"/>
@@ -9644,8 +9632,8 @@
       <c r="E24" s="182"/>
       <c r="F24" s="183"/>
       <c r="G24" s="183"/>
-      <c r="H24" s="183" t="str" cm="1">
-        <f t="array" ref="H24">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H24" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I24" s="184"/>
@@ -9660,8 +9648,8 @@
       <c r="E25" s="182"/>
       <c r="F25" s="183"/>
       <c r="G25" s="183"/>
-      <c r="H25" s="183" t="str" cm="1">
-        <f t="array" ref="H25">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H25" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I25" s="184"/>
@@ -9676,8 +9664,8 @@
       <c r="E26" s="182"/>
       <c r="F26" s="183"/>
       <c r="G26" s="183"/>
-      <c r="H26" s="183" t="str" cm="1">
-        <f t="array" ref="H26">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H26" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I26" s="184"/>
@@ -9692,8 +9680,8 @@
       <c r="E27" s="182"/>
       <c r="F27" s="183"/>
       <c r="G27" s="183"/>
-      <c r="H27" s="183" t="str" cm="1">
-        <f t="array" ref="H27">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H27" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I27" s="184"/>
@@ -9708,8 +9696,8 @@
       <c r="E28" s="182"/>
       <c r="F28" s="183"/>
       <c r="G28" s="183"/>
-      <c r="H28" s="183" t="str" cm="1">
-        <f t="array" ref="H28">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H28" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I28" s="184"/>
@@ -9724,8 +9712,8 @@
       <c r="E29" s="182"/>
       <c r="F29" s="183"/>
       <c r="G29" s="183"/>
-      <c r="H29" s="183" t="str" cm="1">
-        <f t="array" ref="H29">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H29" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I29" s="184"/>
@@ -9740,8 +9728,8 @@
       <c r="E30" s="182"/>
       <c r="F30" s="183"/>
       <c r="G30" s="183"/>
-      <c r="H30" s="183" t="str" cm="1">
-        <f t="array" ref="H30">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H30" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I30" s="184"/>
@@ -9756,8 +9744,8 @@
       <c r="E31" s="182"/>
       <c r="F31" s="183"/>
       <c r="G31" s="183"/>
-      <c r="H31" s="183" t="str" cm="1">
-        <f t="array" ref="H31">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H31" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I31" s="184"/>
@@ -9772,8 +9760,8 @@
       <c r="E32" s="182"/>
       <c r="F32" s="183"/>
       <c r="G32" s="183"/>
-      <c r="H32" s="183" t="str" cm="1">
-        <f t="array" ref="H32">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H32" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I32" s="184"/>
@@ -9788,8 +9776,8 @@
       <c r="E33" s="182"/>
       <c r="F33" s="183"/>
       <c r="G33" s="183"/>
-      <c r="H33" s="183" t="str" cm="1">
-        <f t="array" ref="H33">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H33" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I33" s="184"/>
@@ -9804,8 +9792,8 @@
       <c r="E34" s="182"/>
       <c r="F34" s="183"/>
       <c r="G34" s="183"/>
-      <c r="H34" s="183" t="str" cm="1">
-        <f t="array" ref="H34">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H34" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I34" s="184"/>
@@ -9820,8 +9808,8 @@
       <c r="E35" s="182"/>
       <c r="F35" s="183"/>
       <c r="G35" s="183"/>
-      <c r="H35" s="183" t="str" cm="1">
-        <f t="array" ref="H35">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H35" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I35" s="184"/>
@@ -9836,8 +9824,8 @@
       <c r="E36" s="182"/>
       <c r="F36" s="183"/>
       <c r="G36" s="183"/>
-      <c r="H36" s="183" t="str" cm="1">
-        <f t="array" ref="H36">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H36" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I36" s="184"/>
@@ -9852,8 +9840,8 @@
       <c r="E37" s="182"/>
       <c r="F37" s="183"/>
       <c r="G37" s="183"/>
-      <c r="H37" s="183" t="str" cm="1">
-        <f t="array" ref="H37">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H37" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I37" s="184"/>
@@ -9868,8 +9856,8 @@
       <c r="E38" s="182"/>
       <c r="F38" s="183"/>
       <c r="G38" s="183"/>
-      <c r="H38" s="183" t="str" cm="1">
-        <f t="array" ref="H38">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H38" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I38" s="184"/>
@@ -9884,8 +9872,8 @@
       <c r="E39" s="182"/>
       <c r="F39" s="183"/>
       <c r="G39" s="183"/>
-      <c r="H39" s="183" t="str" cm="1">
-        <f t="array" ref="H39">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H39" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I39" s="184"/>
@@ -9900,8 +9888,8 @@
       <c r="E40" s="182"/>
       <c r="F40" s="183"/>
       <c r="G40" s="183"/>
-      <c r="H40" s="183" t="str" cm="1">
-        <f t="array" ref="H40">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H40" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I40" s="184"/>
@@ -9916,8 +9904,8 @@
       <c r="E41" s="182"/>
       <c r="F41" s="183"/>
       <c r="G41" s="183"/>
-      <c r="H41" s="183" t="str" cm="1">
-        <f t="array" ref="H41">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H41" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I41" s="184"/>
@@ -9932,8 +9920,8 @@
       <c r="E42" s="182"/>
       <c r="F42" s="183"/>
       <c r="G42" s="183"/>
-      <c r="H42" s="183" t="str" cm="1">
-        <f t="array" ref="H42">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H42" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I42" s="184"/>
@@ -9948,8 +9936,8 @@
       <c r="E43" s="182"/>
       <c r="F43" s="183"/>
       <c r="G43" s="183"/>
-      <c r="H43" s="183" t="str" cm="1">
-        <f t="array" ref="H43">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H43" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I43" s="184"/>
@@ -9964,8 +9952,8 @@
       <c r="E44" s="182"/>
       <c r="F44" s="183"/>
       <c r="G44" s="183"/>
-      <c r="H44" s="183" t="str" cm="1">
-        <f t="array" ref="H44">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H44" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I44" s="184"/>
@@ -9980,8 +9968,8 @@
       <c r="E45" s="182"/>
       <c r="F45" s="183"/>
       <c r="G45" s="183"/>
-      <c r="H45" s="183" t="str" cm="1">
-        <f t="array" ref="H45">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H45" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I45" s="184"/>
@@ -9996,8 +9984,8 @@
       <c r="E46" s="182"/>
       <c r="F46" s="183"/>
       <c r="G46" s="183"/>
-      <c r="H46" s="183" t="str" cm="1">
-        <f t="array" ref="H46">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H46" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I46" s="184"/>
@@ -10012,8 +10000,8 @@
       <c r="E47" s="182"/>
       <c r="F47" s="183"/>
       <c r="G47" s="183"/>
-      <c r="H47" s="183" t="str" cm="1">
-        <f t="array" ref="H47">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H47" s="183" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I47" s="184"/>
@@ -10028,8 +10016,8 @@
       <c r="E48" s="188"/>
       <c r="F48" s="189"/>
       <c r="G48" s="189"/>
-      <c r="H48" s="189" t="str" cm="1">
-        <f t="array" ref="H48">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
+      <c r="H48" s="189" t="str">
+        <f>IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I48" s="190"/>
@@ -10064,7 +10052,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="e">
-        <f>CONCATENATE("PV n° ",Dossiers_Dossier, " - Essais Dynaplaque")</f>
+        <f>CONCATENATE("PV n° ",Dossiers_Dossier, " - Essais Minidyn")</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="8"/>
@@ -10082,6 +10070,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A8:C8"/>
@@ -10090,12 +10084,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10111,7 +10099,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:M5"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10149,17 +10137,17 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="336" t="s">
+      <c r="D2" s="341" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10196,50 +10184,50 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="337"/>
       <c r="B6" s="337"/>
       <c r="C6" s="337"/>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="337"/>
       <c r="B7" s="337"/>
       <c r="C7" s="337"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="337"/>
@@ -10264,28 +10252,28 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="340"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="333"/>
+      <c r="K10" s="333"/>
+      <c r="L10" s="334"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10294,45 +10282,45 @@
       <c r="C11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="343" t="e">
+      <c r="D11" s="338" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="343"/>
-      <c r="F11" s="343"/>
-      <c r="G11" s="196"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="192"/>
       <c r="H11" s="166"/>
       <c r="I11" s="166"/>
       <c r="J11" s="166"/>
       <c r="K11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="192">
+      <c r="L11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
+        <v>45213</v>
       </c>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="123"/>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="344" t="e">
+      <c r="D12" s="339" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="344"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="197"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="339"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="167"/>
       <c r="I12" s="167"/>
       <c r="J12" s="167"/>
       <c r="K12" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="195" t="e">
+      <c r="L12" s="124" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
@@ -10344,20 +10332,20 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="345" t="e">
+      <c r="D13" s="340" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="198"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="340"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="169"/>
       <c r="I13" s="169"/>
       <c r="J13" s="169"/>
       <c r="K13" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="194" t="e">
+      <c r="L13" s="116" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
@@ -10374,25 +10362,25 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="193"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="12"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="332" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="340"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="333"/>
+      <c r="G15" s="333"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="333"/>
+      <c r="K15" s="333"/>
+      <c r="L15" s="334"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10439,10 +10427,10 @@
       <c r="J17" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="341" t="s">
+      <c r="K17" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="342"/>
+      <c r="L17" s="336"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -10459,22 +10447,22 @@
       <c r="E18" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="200" t="str">
+      <c r="F18" s="196" t="str">
         <f>IFERROR(IF(ArrayResult3[[#This Row],[Module1Raw]]="","",IF(ArrayResult3[[#This Row],[Module1Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module1Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module1Raw]]))),"")</f>
         <v/>
       </c>
       <c r="G18" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="200" t="str">
+      <c r="H18" s="196" t="str">
         <f>IFERROR(IF(ArrayResult3[[#This Row],[Module2Raw]]="","",IF(ArrayResult3[[#This Row],[Module2Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module2Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module2Raw]]))),"")</f>
         <v/>
       </c>
       <c r="I18" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="199" t="str" cm="1">
-        <f t="array" ref="J18">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J18" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K18" s="178"/>
@@ -10497,8 +10485,8 @@
         <v/>
       </c>
       <c r="I19" s="183"/>
-      <c r="J19" s="183" t="str" cm="1">
-        <f t="array" ref="J19">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J19" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K19" s="184"/>
@@ -10521,8 +10509,8 @@
         <v/>
       </c>
       <c r="I20" s="183"/>
-      <c r="J20" s="183" t="str" cm="1">
-        <f t="array" ref="J20">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J20" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K20" s="184"/>
@@ -10545,8 +10533,8 @@
         <v/>
       </c>
       <c r="I21" s="183"/>
-      <c r="J21" s="183" t="str" cm="1">
-        <f t="array" ref="J21">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J21" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K21" s="184"/>
@@ -10569,8 +10557,8 @@
         <v/>
       </c>
       <c r="I22" s="183"/>
-      <c r="J22" s="183" t="str" cm="1">
-        <f t="array" ref="J22">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J22" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K22" s="184"/>
@@ -10593,8 +10581,8 @@
         <v/>
       </c>
       <c r="I23" s="183"/>
-      <c r="J23" s="183" t="str" cm="1">
-        <f t="array" ref="J23">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J23" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K23" s="184"/>
@@ -10617,8 +10605,8 @@
         <v/>
       </c>
       <c r="I24" s="183"/>
-      <c r="J24" s="183" t="str" cm="1">
-        <f t="array" ref="J24">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J24" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K24" s="184"/>
@@ -10641,8 +10629,8 @@
         <v/>
       </c>
       <c r="I25" s="183"/>
-      <c r="J25" s="183" t="str" cm="1">
-        <f t="array" ref="J25">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J25" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K25" s="184"/>
@@ -10665,8 +10653,8 @@
         <v/>
       </c>
       <c r="I26" s="183"/>
-      <c r="J26" s="183" t="str" cm="1">
-        <f t="array" ref="J26">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J26" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K26" s="184"/>
@@ -10689,8 +10677,8 @@
         <v/>
       </c>
       <c r="I27" s="183"/>
-      <c r="J27" s="183" t="str" cm="1">
-        <f t="array" ref="J27">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J27" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K27" s="184"/>
@@ -10713,8 +10701,8 @@
         <v/>
       </c>
       <c r="I28" s="183"/>
-      <c r="J28" s="183" t="str" cm="1">
-        <f t="array" ref="J28">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J28" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K28" s="184"/>
@@ -10737,8 +10725,8 @@
         <v/>
       </c>
       <c r="I29" s="183"/>
-      <c r="J29" s="183" t="str" cm="1">
-        <f t="array" ref="J29">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J29" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K29" s="184"/>
@@ -10761,8 +10749,8 @@
         <v/>
       </c>
       <c r="I30" s="183"/>
-      <c r="J30" s="183" t="str" cm="1">
-        <f t="array" ref="J30">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J30" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K30" s="184"/>
@@ -10785,8 +10773,8 @@
         <v/>
       </c>
       <c r="I31" s="183"/>
-      <c r="J31" s="183" t="str" cm="1">
-        <f t="array" ref="J31">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J31" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K31" s="184"/>
@@ -10809,8 +10797,8 @@
         <v/>
       </c>
       <c r="I32" s="183"/>
-      <c r="J32" s="183" t="str" cm="1">
-        <f t="array" ref="J32">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J32" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K32" s="184"/>
@@ -10833,8 +10821,8 @@
         <v/>
       </c>
       <c r="I33" s="183"/>
-      <c r="J33" s="183" t="str" cm="1">
-        <f t="array" ref="J33">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J33" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K33" s="184"/>
@@ -10857,8 +10845,8 @@
         <v/>
       </c>
       <c r="I34" s="183"/>
-      <c r="J34" s="183" t="str" cm="1">
-        <f t="array" ref="J34">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J34" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K34" s="184"/>
@@ -10881,8 +10869,8 @@
         <v/>
       </c>
       <c r="I35" s="183"/>
-      <c r="J35" s="183" t="str" cm="1">
-        <f t="array" ref="J35">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J35" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K35" s="184"/>
@@ -10905,8 +10893,8 @@
         <v/>
       </c>
       <c r="I36" s="183"/>
-      <c r="J36" s="183" t="str" cm="1">
-        <f t="array" ref="J36">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J36" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K36" s="184"/>
@@ -10929,8 +10917,8 @@
         <v/>
       </c>
       <c r="I37" s="183"/>
-      <c r="J37" s="183" t="str" cm="1">
-        <f t="array" ref="J37">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J37" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K37" s="184"/>
@@ -10953,8 +10941,8 @@
         <v/>
       </c>
       <c r="I38" s="183"/>
-      <c r="J38" s="183" t="str" cm="1">
-        <f t="array" ref="J38">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J38" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K38" s="184"/>
@@ -10977,8 +10965,8 @@
         <v/>
       </c>
       <c r="I39" s="183"/>
-      <c r="J39" s="183" t="str" cm="1">
-        <f t="array" ref="J39">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J39" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K39" s="184"/>
@@ -11001,8 +10989,8 @@
         <v/>
       </c>
       <c r="I40" s="183"/>
-      <c r="J40" s="183" t="str" cm="1">
-        <f t="array" ref="J40">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J40" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K40" s="184"/>
@@ -11025,8 +11013,8 @@
         <v/>
       </c>
       <c r="I41" s="183"/>
-      <c r="J41" s="183" t="str" cm="1">
-        <f t="array" ref="J41">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J41" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K41" s="184"/>
@@ -11049,8 +11037,8 @@
         <v/>
       </c>
       <c r="I42" s="183"/>
-      <c r="J42" s="183" t="str" cm="1">
-        <f t="array" ref="J42">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J42" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K42" s="184"/>
@@ -11073,8 +11061,8 @@
         <v/>
       </c>
       <c r="I43" s="183"/>
-      <c r="J43" s="183" t="str" cm="1">
-        <f t="array" ref="J43">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J43" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K43" s="184"/>
@@ -11097,8 +11085,8 @@
         <v/>
       </c>
       <c r="I44" s="183"/>
-      <c r="J44" s="183" t="str" cm="1">
-        <f t="array" ref="J44">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J44" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K44" s="184"/>
@@ -11121,8 +11109,8 @@
         <v/>
       </c>
       <c r="I45" s="183"/>
-      <c r="J45" s="183" t="str" cm="1">
-        <f t="array" ref="J45">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J45" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K45" s="184"/>
@@ -11145,8 +11133,8 @@
         <v/>
       </c>
       <c r="I46" s="183"/>
-      <c r="J46" s="183" t="str" cm="1">
-        <f t="array" ref="J46">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J46" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K46" s="184"/>
@@ -11169,8 +11157,8 @@
         <v/>
       </c>
       <c r="I47" s="183"/>
-      <c r="J47" s="183" t="str" cm="1">
-        <f t="array" ref="J47">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J47" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K47" s="184"/>
@@ -11193,8 +11181,8 @@
         <v/>
       </c>
       <c r="I48" s="189"/>
-      <c r="J48" s="189" t="str" cm="1">
-        <f t="array" ref="J48">IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
+      <c r="J48" s="195" t="str">
+        <f>IFERROR(IF(ArrayResult3[[#This Row],[Module3Raw]]="","",IF(ArrayResult3[[#This Row],[Module3Raw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult3[[#This Row],[Module3Raw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[Module3Raw]]))),"")</f>
         <v/>
       </c>
       <c r="K48" s="190"/>
@@ -11233,7 +11221,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="e">
-        <f>CONCATENATE("PV n° ",Dossiers_Dossier, " - Essais Dynaplaque")</f>
+        <f>CONCATENATE("PV n° ",Dossiers_Dossier, " - Essais Minidyn")</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="8"/>
@@ -11253,6 +11241,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:M7"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="A8:C8"/>
@@ -11261,12 +11255,6 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:M7"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11283,7 +11271,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11316,15 +11304,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11357,44 +11345,44 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="337"/>
       <c r="B6" s="337"/>
       <c r="C6" s="337"/>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="337"/>
       <c r="B7" s="337"/>
       <c r="C7" s="337"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="337"/>
@@ -11424,17 +11412,17 @@
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="340"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="334"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11443,12 +11431,12 @@
       <c r="C11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="205" t="e">
+      <c r="D11" s="229" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
       <c r="I11" s="69" t="s">
@@ -11456,7 +11444,7 @@
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
+        <v>45213</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -11466,12 +11454,12 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="217" t="e">
+      <c r="D12" s="218" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="218"/>
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="108" t="s">
@@ -11489,12 +11477,12 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="220" t="e">
+      <c r="D13" s="225" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
       <c r="G13" s="107"/>
       <c r="H13" s="107"/>
       <c r="I13" s="70" t="s">
@@ -11521,17 +11509,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="332" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="340"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="333"/>
+      <c r="G15" s="333"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="334"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -11567,12 +11555,12 @@
       <c r="F17" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="347" t="s">
+      <c r="G17" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="347"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="348"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
       <c r="K17" s="136"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11589,14 +11577,14 @@
       <c r="E18" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="91" t="str" cm="1">
-        <f t="array" ref="F18">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="346"/>
-      <c r="H18" s="346"/>
-      <c r="I18" s="346"/>
-      <c r="J18" s="346"/>
+      <c r="F18" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="342"/>
+      <c r="H18" s="342"/>
+      <c r="I18" s="342"/>
+      <c r="J18" s="342"/>
       <c r="K18" s="136" t="e" cm="1">
         <f t="array" ref="K18">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -11608,14 +11596,14 @@
       <c r="C19" s="93"/>
       <c r="D19" s="93"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="91" t="str" cm="1">
-        <f t="array" ref="F19">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="346"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="346"/>
-      <c r="J19" s="346"/>
+      <c r="F19" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="342"/>
+      <c r="H19" s="342"/>
+      <c r="I19" s="342"/>
+      <c r="J19" s="342"/>
       <c r="K19" s="136" t="e" cm="1">
         <f t="array" ref="K19">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -11627,14 +11615,14 @@
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
       <c r="E20" s="90"/>
-      <c r="F20" s="91" t="str" cm="1">
-        <f t="array" ref="F20">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="346"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="346"/>
-      <c r="J20" s="346"/>
+      <c r="F20" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="342"/>
+      <c r="H20" s="342"/>
+      <c r="I20" s="342"/>
+      <c r="J20" s="342"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11643,14 +11631,14 @@
       <c r="C21" s="93"/>
       <c r="D21" s="93"/>
       <c r="E21" s="90"/>
-      <c r="F21" s="91" t="str" cm="1">
-        <f t="array" ref="F21">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="346"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="346"/>
-      <c r="J21" s="346"/>
+      <c r="F21" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11659,14 +11647,14 @@
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
       <c r="E22" s="90"/>
-      <c r="F22" s="91" t="str" cm="1">
-        <f t="array" ref="F22">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
-      <c r="I22" s="346"/>
-      <c r="J22" s="346"/>
+      <c r="F22" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="342"/>
+      <c r="H22" s="342"/>
+      <c r="I22" s="342"/>
+      <c r="J22" s="342"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11675,14 +11663,14 @@
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="91" t="str" cm="1">
-        <f t="array" ref="F23">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="346"/>
-      <c r="H23" s="346"/>
-      <c r="I23" s="346"/>
-      <c r="J23" s="346"/>
+      <c r="F23" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="342"/>
+      <c r="H23" s="342"/>
+      <c r="I23" s="342"/>
+      <c r="J23" s="342"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11691,14 +11679,14 @@
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
       <c r="E24" s="90"/>
-      <c r="F24" s="91" t="str" cm="1">
-        <f t="array" ref="F24">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G24" s="346"/>
-      <c r="H24" s="346"/>
-      <c r="I24" s="346"/>
-      <c r="J24" s="346"/>
+      <c r="F24" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="342"/>
+      <c r="H24" s="342"/>
+      <c r="I24" s="342"/>
+      <c r="J24" s="342"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11707,14 +11695,14 @@
       <c r="C25" s="93"/>
       <c r="D25" s="93"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="91" t="str" cm="1">
-        <f t="array" ref="F25">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="346"/>
-      <c r="H25" s="346"/>
-      <c r="I25" s="346"/>
-      <c r="J25" s="346"/>
+      <c r="F25" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="342"/>
+      <c r="H25" s="342"/>
+      <c r="I25" s="342"/>
+      <c r="J25" s="342"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11723,14 +11711,14 @@
       <c r="C26" s="93"/>
       <c r="D26" s="93"/>
       <c r="E26" s="90"/>
-      <c r="F26" s="91" t="str" cm="1">
-        <f t="array" ref="F26">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="346"/>
-      <c r="H26" s="346"/>
-      <c r="I26" s="346"/>
-      <c r="J26" s="346"/>
+      <c r="F26" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="342"/>
+      <c r="H26" s="342"/>
+      <c r="I26" s="342"/>
+      <c r="J26" s="342"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11739,14 +11727,14 @@
       <c r="C27" s="93"/>
       <c r="D27" s="93"/>
       <c r="E27" s="90"/>
-      <c r="F27" s="91" t="str" cm="1">
-        <f t="array" ref="F27">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="346"/>
-      <c r="H27" s="346"/>
-      <c r="I27" s="346"/>
-      <c r="J27" s="346"/>
+      <c r="F27" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="342"/>
+      <c r="H27" s="342"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11755,14 +11743,14 @@
       <c r="C28" s="93"/>
       <c r="D28" s="93"/>
       <c r="E28" s="90"/>
-      <c r="F28" s="91" t="str" cm="1">
-        <f t="array" ref="F28">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="346"/>
-      <c r="J28" s="346"/>
+      <c r="F28" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="342"/>
+      <c r="H28" s="342"/>
+      <c r="I28" s="342"/>
+      <c r="J28" s="342"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11771,14 +11759,14 @@
       <c r="C29" s="93"/>
       <c r="D29" s="93"/>
       <c r="E29" s="90"/>
-      <c r="F29" s="91" t="str" cm="1">
-        <f t="array" ref="F29">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="346"/>
-      <c r="H29" s="346"/>
-      <c r="I29" s="346"/>
-      <c r="J29" s="346"/>
+      <c r="F29" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="342"/>
+      <c r="H29" s="342"/>
+      <c r="I29" s="342"/>
+      <c r="J29" s="342"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11787,14 +11775,14 @@
       <c r="C30" s="93"/>
       <c r="D30" s="93"/>
       <c r="E30" s="90"/>
-      <c r="F30" s="91" t="str" cm="1">
-        <f t="array" ref="F30">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="346"/>
-      <c r="J30" s="346"/>
+      <c r="F30" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="342"/>
+      <c r="H30" s="342"/>
+      <c r="I30" s="342"/>
+      <c r="J30" s="342"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11803,14 +11791,14 @@
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
       <c r="E31" s="90"/>
-      <c r="F31" s="91" t="str" cm="1">
-        <f t="array" ref="F31">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="346"/>
-      <c r="H31" s="346"/>
-      <c r="I31" s="346"/>
-      <c r="J31" s="346"/>
+      <c r="F31" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="342"/>
+      <c r="H31" s="342"/>
+      <c r="I31" s="342"/>
+      <c r="J31" s="342"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11819,14 +11807,14 @@
       <c r="C32" s="93"/>
       <c r="D32" s="93"/>
       <c r="E32" s="90"/>
-      <c r="F32" s="91" t="str" cm="1">
-        <f t="array" ref="F32">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="346"/>
-      <c r="H32" s="346"/>
-      <c r="I32" s="346"/>
-      <c r="J32" s="346"/>
+      <c r="F32" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="342"/>
+      <c r="H32" s="342"/>
+      <c r="I32" s="342"/>
+      <c r="J32" s="342"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11835,14 +11823,14 @@
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
       <c r="E33" s="90"/>
-      <c r="F33" s="91" t="str" cm="1">
-        <f t="array" ref="F33">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="346"/>
-      <c r="H33" s="346"/>
-      <c r="I33" s="346"/>
-      <c r="J33" s="346"/>
+      <c r="F33" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="342"/>
+      <c r="H33" s="342"/>
+      <c r="I33" s="342"/>
+      <c r="J33" s="342"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11851,14 +11839,14 @@
       <c r="C34" s="93"/>
       <c r="D34" s="93"/>
       <c r="E34" s="90"/>
-      <c r="F34" s="91" t="str" cm="1">
-        <f t="array" ref="F34">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="346"/>
-      <c r="H34" s="346"/>
-      <c r="I34" s="346"/>
-      <c r="J34" s="346"/>
+      <c r="F34" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="342"/>
+      <c r="H34" s="342"/>
+      <c r="I34" s="342"/>
+      <c r="J34" s="342"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11867,14 +11855,14 @@
       <c r="C35" s="93"/>
       <c r="D35" s="93"/>
       <c r="E35" s="90"/>
-      <c r="F35" s="91" t="str" cm="1">
-        <f t="array" ref="F35">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G35" s="346"/>
-      <c r="H35" s="346"/>
-      <c r="I35" s="346"/>
-      <c r="J35" s="346"/>
+      <c r="F35" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="342"/>
+      <c r="H35" s="342"/>
+      <c r="I35" s="342"/>
+      <c r="J35" s="342"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11883,14 +11871,14 @@
       <c r="C36" s="93"/>
       <c r="D36" s="93"/>
       <c r="E36" s="90"/>
-      <c r="F36" s="91" t="str" cm="1">
-        <f t="array" ref="F36">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G36" s="346"/>
-      <c r="H36" s="346"/>
-      <c r="I36" s="346"/>
-      <c r="J36" s="346"/>
+      <c r="F36" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="342"/>
+      <c r="H36" s="342"/>
+      <c r="I36" s="342"/>
+      <c r="J36" s="342"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11899,14 +11887,14 @@
       <c r="C37" s="93"/>
       <c r="D37" s="93"/>
       <c r="E37" s="90"/>
-      <c r="F37" s="91" t="str" cm="1">
-        <f t="array" ref="F37">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="346"/>
-      <c r="H37" s="346"/>
-      <c r="I37" s="346"/>
-      <c r="J37" s="346"/>
+      <c r="F37" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="342"/>
+      <c r="H37" s="342"/>
+      <c r="I37" s="342"/>
+      <c r="J37" s="342"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11915,14 +11903,14 @@
       <c r="C38" s="93"/>
       <c r="D38" s="93"/>
       <c r="E38" s="90"/>
-      <c r="F38" s="91" t="str" cm="1">
-        <f t="array" ref="F38">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="346"/>
-      <c r="H38" s="346"/>
-      <c r="I38" s="346"/>
-      <c r="J38" s="346"/>
+      <c r="F38" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="342"/>
+      <c r="H38" s="342"/>
+      <c r="I38" s="342"/>
+      <c r="J38" s="342"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11931,14 +11919,14 @@
       <c r="C39" s="93"/>
       <c r="D39" s="93"/>
       <c r="E39" s="90"/>
-      <c r="F39" s="91" t="str" cm="1">
-        <f t="array" ref="F39">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="346"/>
-      <c r="H39" s="346"/>
-      <c r="I39" s="346"/>
-      <c r="J39" s="346"/>
+      <c r="F39" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="342"/>
+      <c r="H39" s="342"/>
+      <c r="I39" s="342"/>
+      <c r="J39" s="342"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11947,14 +11935,14 @@
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
       <c r="E40" s="90"/>
-      <c r="F40" s="91" t="str" cm="1">
-        <f t="array" ref="F40">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="346"/>
-      <c r="H40" s="346"/>
-      <c r="I40" s="346"/>
-      <c r="J40" s="346"/>
+      <c r="F40" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="342"/>
+      <c r="H40" s="342"/>
+      <c r="I40" s="342"/>
+      <c r="J40" s="342"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11963,14 +11951,14 @@
       <c r="C41" s="93"/>
       <c r="D41" s="93"/>
       <c r="E41" s="90"/>
-      <c r="F41" s="91" t="str" cm="1">
-        <f t="array" ref="F41">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G41" s="346"/>
-      <c r="H41" s="346"/>
-      <c r="I41" s="346"/>
-      <c r="J41" s="346"/>
+      <c r="F41" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="342"/>
+      <c r="H41" s="342"/>
+      <c r="I41" s="342"/>
+      <c r="J41" s="342"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11979,14 +11967,14 @@
       <c r="C42" s="93"/>
       <c r="D42" s="93"/>
       <c r="E42" s="90"/>
-      <c r="F42" s="91" t="str" cm="1">
-        <f t="array" ref="F42">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G42" s="346"/>
-      <c r="H42" s="346"/>
-      <c r="I42" s="346"/>
-      <c r="J42" s="346"/>
+      <c r="F42" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="342"/>
+      <c r="H42" s="342"/>
+      <c r="I42" s="342"/>
+      <c r="J42" s="342"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11995,14 +11983,14 @@
       <c r="C43" s="93"/>
       <c r="D43" s="93"/>
       <c r="E43" s="90"/>
-      <c r="F43" s="91" t="str" cm="1">
-        <f t="array" ref="F43">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G43" s="346"/>
-      <c r="H43" s="346"/>
-      <c r="I43" s="346"/>
-      <c r="J43" s="346"/>
+      <c r="F43" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="342"/>
+      <c r="H43" s="342"/>
+      <c r="I43" s="342"/>
+      <c r="J43" s="342"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12011,14 +11999,14 @@
       <c r="C44" s="93"/>
       <c r="D44" s="93"/>
       <c r="E44" s="90"/>
-      <c r="F44" s="91" t="str" cm="1">
-        <f t="array" ref="F44">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G44" s="346"/>
-      <c r="H44" s="346"/>
-      <c r="I44" s="346"/>
-      <c r="J44" s="346"/>
+      <c r="F44" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="342"/>
+      <c r="H44" s="342"/>
+      <c r="I44" s="342"/>
+      <c r="J44" s="342"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12027,14 +12015,14 @@
       <c r="C45" s="93"/>
       <c r="D45" s="93"/>
       <c r="E45" s="90"/>
-      <c r="F45" s="91" t="str" cm="1">
-        <f t="array" ref="F45">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G45" s="346"/>
-      <c r="H45" s="346"/>
-      <c r="I45" s="346"/>
-      <c r="J45" s="346"/>
+      <c r="F45" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="342"/>
+      <c r="H45" s="342"/>
+      <c r="I45" s="342"/>
+      <c r="J45" s="342"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12043,14 +12031,14 @@
       <c r="C46" s="93"/>
       <c r="D46" s="93"/>
       <c r="E46" s="90"/>
-      <c r="F46" s="91" t="str" cm="1">
-        <f t="array" ref="F46">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G46" s="346"/>
-      <c r="H46" s="346"/>
-      <c r="I46" s="346"/>
-      <c r="J46" s="346"/>
+      <c r="F46" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="342"/>
+      <c r="H46" s="342"/>
+      <c r="I46" s="342"/>
+      <c r="J46" s="342"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12059,14 +12047,14 @@
       <c r="C47" s="93"/>
       <c r="D47" s="93"/>
       <c r="E47" s="90"/>
-      <c r="F47" s="91" t="str" cm="1">
-        <f t="array" ref="F47">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G47" s="346"/>
-      <c r="H47" s="346"/>
-      <c r="I47" s="346"/>
-      <c r="J47" s="346"/>
+      <c r="F47" s="91" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="342"/>
+      <c r="H47" s="342"/>
+      <c r="I47" s="342"/>
+      <c r="J47" s="342"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12075,14 +12063,14 @@
       <c r="C48" s="95"/>
       <c r="D48" s="95"/>
       <c r="E48" s="96"/>
-      <c r="F48" s="137" t="str" cm="1">
-        <f t="array" ref="F48">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
-        <v/>
-      </c>
-      <c r="G48" s="346"/>
-      <c r="H48" s="346"/>
-      <c r="I48" s="346"/>
-      <c r="J48" s="346"/>
+      <c r="F48" s="137" t="str">
+        <f>IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;Unit_Modulus_Min,"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="342"/>
+      <c r="H48" s="342"/>
+      <c r="I48" s="342"/>
+      <c r="J48" s="342"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -12113,7 +12101,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="e">
-        <f>CONCATENATE("PV n° ",Project_Project, " - Essais Dynaplaque")</f>
+        <f>CONCATENATE("PV n° ",Project_Project, " - Essais Minidyn")</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="8"/>
@@ -12131,15 +12119,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
@@ -12152,30 +12155,15 @@
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12191,18 +12179,18 @@
   <sheetPr codeName="Feuil13"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.90625" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12221,14 +12209,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="336" t="s">
+      <c r="D2" s="341" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12259,41 +12247,41 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="337"/>
       <c r="B6" s="337"/>
       <c r="C6" s="337"/>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="337"/>
       <c r="B7" s="337"/>
       <c r="C7" s="337"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="337"/>
@@ -12321,16 +12309,16 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="340"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="334"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12351,7 +12339,7 @@
       </c>
       <c r="I11" s="22">
         <f ca="1">TODAY()</f>
-        <v>44972</v>
+        <v>45213</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -12413,16 +12401,16 @@
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="340"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="333"/>
+      <c r="G15" s="333"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="334"/>
       <c r="J15" s="15"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -12851,7 +12839,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="e">
-        <f>CONCATENATE("PV n° ",Project_Project, " - Essais Dynaplaque")</f>
+        <f>CONCATENATE("PV n° ",Project_Project, " - Essais Minidyn")</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="8"/>
